--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A02109E5-583B-4321-BC72-0151DD27B11A}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66256BA5-1E47-4D33-A65C-F3C011FF7FE6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>speed</t>
   </si>
   <si>
-    <t>dayrate</t>
-  </si>
-  <si>
     <t>tech_cap</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>max_time_offshore</t>
   </si>
   <si>
-    <t>purchase_cost</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>charter_period</t>
+  </si>
+  <si>
+    <t>cost_charter_day</t>
+  </si>
+  <si>
+    <t>cost_purchase</t>
   </si>
 </sst>
 </file>
@@ -546,13 +546,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -635,13 +635,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -650,22 +656,22 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -770,33 +776,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -816,10 +822,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -839,10 +845,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -869,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F60F74-5991-4DF7-ADB4-D8FEE6BDA60A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66256BA5-1E47-4D33-A65C-F3C011FF7FE6}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8075812-09FF-44AA-9110-6158957EF36A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="vessels" sheetId="2" r:id="rId3"/>
     <sheet name="tasks" sheetId="3" r:id="rId4"/>
     <sheet name="task_compatibility" sheetId="4" r:id="rId5"/>
+    <sheet name="capacity_base_vessels" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -576,7 +577,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,7 +771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4AD3B-D68B-43E0-80DF-E258B870C86F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -876,7 +879,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,4 +942,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E7950-5805-40E5-8CB7-09BB0C8D59D5}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
+        <v>V1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>V2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>V3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;"")</f>
+        <v>B1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>B2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8075812-09FF-44AA-9110-6158957EF36A}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6287613-7D4E-4B18-B165-7B7CE9C12CF1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>B1</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>cost_purchase</t>
+  </si>
+  <si>
+    <t>cost_operation</t>
+  </si>
+  <si>
+    <t>cost_technicians</t>
+  </si>
+  <si>
+    <t>cost_downtime</t>
+  </si>
+  <si>
+    <t>penalty_cost_late</t>
+  </si>
+  <si>
+    <t>penalty_cost_not_performed</t>
+  </si>
+  <si>
+    <t>latest_period</t>
   </si>
 </sst>
 </file>
@@ -533,19 +551,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF71955-FB00-4A13-9841-9B985EEEFB62}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -555,8 +578,23 @@
       <c r="C1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>30</v>
       </c>
@@ -566,9 +604,25 @@
       <c r="C2">
         <v>30</v>
       </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>20000</v>
+      </c>
+      <c r="G2">
+        <v>1000000</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -577,7 +631,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,19 +688,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -674,8 +731,11 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -703,8 +763,11 @@
       <c r="I2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -732,8 +795,11 @@
       <c r="I3">
         <v>80000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -760,6 +826,9 @@
       </c>
       <c r="I4">
         <v>130000</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -772,10 +841,16 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -948,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E7950-5805-40E5-8CB7-09BB0C8D59D5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6287613-7D4E-4B18-B165-7B7CE9C12CF1}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F649A1C4-D109-43C1-AA6F-9E72C5A59C32}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF71955-FB00-4A13-9841-9B985EEEFB62}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I2">
         <v>10000</v>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I3">
         <v>80000</v>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="I4">
         <v>130000</v>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F649A1C4-D109-43C1-AA6F-9E72C5A59C32}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D70759-6E8C-4092-B64D-E63B18DDC02F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>10000</v>
@@ -784,13 +784,14 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>80000</v>
@@ -816,13 +817,14 @@
         <v>12</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <f>30/60</f>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>130000</v>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D70759-6E8C-4092-B64D-E63B18DDC02F}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40820339-1358-4104-9704-C66A38C0CD8E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
     <sheet name="bases" sheetId="1" r:id="rId2"/>
     <sheet name="vessels" sheetId="2" r:id="rId3"/>
     <sheet name="tasks" sheetId="3" r:id="rId4"/>
-    <sheet name="task_compatibility" sheetId="4" r:id="rId5"/>
-    <sheet name="capacity_base_vessels" sheetId="6" r:id="rId6"/>
+    <sheet name="spare_parts" sheetId="7" r:id="rId5"/>
+    <sheet name="task_compatibility" sheetId="4" r:id="rId6"/>
+    <sheet name="capacity_base_vessels" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>B1</t>
   </si>
@@ -174,6 +175,18 @@
   </si>
   <si>
     <t>latest_period</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
   </si>
 </sst>
 </file>
@@ -690,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -952,6 +965,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F60F74-5991-4DF7-ADB4-D8FEE6BDA60A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1021,7 +1074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E7950-5805-40E5-8CB7-09BB0C8D59D5}">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40820339-1358-4104-9704-C66A38C0CD8E}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F8D760-6162-40D4-8F4C-275699ACF7E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="spare_parts" sheetId="7" r:id="rId5"/>
     <sheet name="task_compatibility" sheetId="4" r:id="rId6"/>
     <sheet name="capacity_base_vessels" sheetId="6" r:id="rId7"/>
+    <sheet name="holding_costs" sheetId="8" r:id="rId8"/>
+    <sheet name="spare_parts_required" sheetId="9" r:id="rId9"/>
+    <sheet name="max_capacity" sheetId="10" r:id="rId10"/>
+    <sheet name="reorder_level" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>B1</t>
   </si>
@@ -187,6 +191,12 @@
   </si>
   <si>
     <t>S4</t>
+  </si>
+  <si>
+    <t>order_cost</t>
+  </si>
+  <si>
+    <t>lead_time</t>
   </si>
 </sst>
 </file>
@@ -639,6 +649,144 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>S3</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>S4</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>S3</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>S4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06E241-D090-4C23-9A88-3F3C92E70F61}">
   <dimension ref="A1:D3"/>
@@ -966,37 +1114,67 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1257,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,4 +1306,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB2CC8-B9D8-4FE5-960B-9B0984034D8D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>S3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>S4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;""))</f>
+        <v>M1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>M2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>M3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>S3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>S4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F8D760-6162-40D4-8F4C-275699ACF7E5}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0408067-4471-485E-855D-6C69C1560B13}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -654,7 +654,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,10 +674,10 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,10 +685,10 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,10 +696,10 @@
         <v>S3</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,10 +707,10 @@
         <v>S4</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +723,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,10 +743,10 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -754,10 +754,10 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -765,10 +765,10 @@
         <v>S3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -776,10 +776,10 @@
         <v>S4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0408067-4471-485E-855D-6C69C1560B13}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{042EA562-D850-49C5-BA8A-71054D69F932}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -653,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1381,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,7 +1405,7 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1419,13 +1419,13 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1447,13 +1447,13 @@
         <v>S4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{042EA562-D850-49C5-BA8A-71054D69F932}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8185416-1C93-4F3D-A75D-E033BCC4C3AE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,10 +743,10 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1381,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8185416-1C93-4F3D-A75D-E033BCC4C3AE}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50C7727-FF25-44B4-9F8F-D8744653D5D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,10 +674,10 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,10 +685,10 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,10 +696,10 @@
         <v>S3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,10 +707,10 @@
         <v>S4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,10 +743,10 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D70759-6E8C-4092-B64D-E63B18DDC02F}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50C7727-FF25-44B4-9F8F-D8744653D5D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
     <sheet name="bases" sheetId="1" r:id="rId2"/>
     <sheet name="vessels" sheetId="2" r:id="rId3"/>
     <sheet name="tasks" sheetId="3" r:id="rId4"/>
-    <sheet name="task_compatibility" sheetId="4" r:id="rId5"/>
-    <sheet name="capacity_base_vessels" sheetId="6" r:id="rId6"/>
+    <sheet name="spare_parts" sheetId="7" r:id="rId5"/>
+    <sheet name="task_compatibility" sheetId="4" r:id="rId6"/>
+    <sheet name="capacity_base_vessels" sheetId="6" r:id="rId7"/>
+    <sheet name="holding_costs" sheetId="8" r:id="rId8"/>
+    <sheet name="spare_parts_required" sheetId="9" r:id="rId9"/>
+    <sheet name="max_capacity" sheetId="10" r:id="rId10"/>
+    <sheet name="reorder_level" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>B1</t>
   </si>
@@ -174,6 +179,24 @@
   </si>
   <si>
     <t>latest_period</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>order_cost</t>
+  </si>
+  <si>
+    <t>lead_time</t>
   </si>
 </sst>
 </file>
@@ -626,6 +649,144 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>S3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>S4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>S3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>S4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06E241-D090-4C23-9A88-3F3C92E70F61}">
   <dimension ref="A1:D3"/>
@@ -690,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -952,6 +1113,76 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F60F74-5991-4DF7-ADB4-D8FEE6BDA60A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1021,12 +1252,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E7950-5805-40E5-8CB7-09BB0C8D59D5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,4 +1306,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB2CC8-B9D8-4FE5-960B-9B0984034D8D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>S3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>S4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;""))</f>
+        <v>M1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>M2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>M3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>S3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>S4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50C7727-FF25-44B4-9F8F-D8744653D5D8}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9C53AE-5D15-47F8-9EEB-51730F1FED0F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -653,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,6 +913,7 @@
         <v>10</v>
       </c>
       <c r="F2">
+        <f>15/60</f>
         <v>0.25</v>
       </c>
       <c r="G2">

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9C53AE-5D15-47F8-9EEB-51730F1FED0F}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6837B80E-2CAA-43F1-9D7F-9CFDAF6D5302}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
@@ -852,7 +852,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,7 +907,7 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>5000</v>
+        <v>166.67</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -926,7 +926,7 @@
         <v>10000</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>166.67</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -940,7 +940,7 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>10000</v>
+        <v>333.33</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -959,7 +959,7 @@
         <v>80000</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>166.67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>16250</v>
+        <v>541.66999999999996</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -992,7 +992,7 @@
         <v>130000</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6837B80E-2CAA-43F1-9D7F-9CFDAF6D5302}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5287B7C5-350C-4629-A789-7FAD9FD6FABB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>B1</t>
   </si>
@@ -185,12 +185,6 @@
   </si>
   <si>
     <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
   </si>
   <si>
     <t>order_cost</t>
@@ -654,7 +648,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,14 +664,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,16 +679,13 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>S3</v>
-      </c>
       <c r="B4">
         <v>20</v>
       </c>
@@ -703,9 +694,6 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>S4</v>
-      </c>
       <c r="B5">
         <v>20</v>
       </c>
@@ -722,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +727,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
@@ -761,9 +749,6 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>S3</v>
-      </c>
       <c r="B4">
         <v>10</v>
       </c>
@@ -772,9 +757,6 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>S4</v>
-      </c>
       <c r="B5">
         <v>10</v>
       </c>
@@ -851,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1115,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,10 +1110,10 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1154,28 +1136,6 @@
       </c>
       <c r="C3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1274,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,14 +1290,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1345,16 +1305,13 @@
         <v>S2</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>S3</v>
-      </c>
       <c r="B4">
         <v>4</v>
       </c>
@@ -1363,9 +1320,6 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>S4</v>
-      </c>
       <c r="B5">
         <v>2</v>
       </c>
@@ -1383,7 +1337,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,14 +1356,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1423,16 +1377,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>S3</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
@@ -1444,9 +1395,6 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>S4</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5287B7C5-350C-4629-A789-7FAD9FD6FABB}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0200341B-4A0A-4646-9B57-C6C1DED49D4B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -648,7 +648,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,7 +742,7 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -5,25 +5,27 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liams\OneDrive\Documents\Mischa Code\OWF_Vessel-Fleet-Optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="8_{D235DB62-0293-48F4-BA36-F64F0C452A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6837B80E-2CAA-43F1-9D7F-9CFDAF6D5302}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3151CD22-8B3E-4FC5-8CCE-42E55EA3313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
     <sheet name="bases" sheetId="1" r:id="rId2"/>
     <sheet name="vessels" sheetId="2" r:id="rId3"/>
-    <sheet name="tasks" sheetId="3" r:id="rId4"/>
-    <sheet name="spare_parts" sheetId="7" r:id="rId5"/>
-    <sheet name="task_compatibility" sheetId="4" r:id="rId6"/>
-    <sheet name="capacity_base_vessels" sheetId="6" r:id="rId7"/>
-    <sheet name="holding_costs" sheetId="8" r:id="rId8"/>
-    <sheet name="spare_parts_required" sheetId="9" r:id="rId9"/>
-    <sheet name="max_capacity" sheetId="10" r:id="rId10"/>
-    <sheet name="reorder_level" sheetId="11" r:id="rId11"/>
+    <sheet name="mother_vessels" sheetId="13" r:id="rId4"/>
+    <sheet name="locations" sheetId="12" r:id="rId5"/>
+    <sheet name="tasks" sheetId="3" r:id="rId6"/>
+    <sheet name="spare_parts" sheetId="7" r:id="rId7"/>
+    <sheet name="task_compatibility" sheetId="4" r:id="rId8"/>
+    <sheet name="capacity_base_vessels" sheetId="6" r:id="rId9"/>
+    <sheet name="holding_costs" sheetId="8" r:id="rId10"/>
+    <sheet name="spare_parts_required" sheetId="9" r:id="rId11"/>
+    <sheet name="max_capacity" sheetId="10" r:id="rId12"/>
+    <sheet name="reorder_level" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>B1</t>
   </si>
@@ -187,16 +189,25 @@
     <t>S2</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
     <t>order_cost</t>
   </si>
   <si>
     <t>lead_time</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>max_capacity_for_docking</t>
+  </si>
+  <si>
+    <t>additional_time</t>
+  </si>
+  <si>
+    <t>tech_standby_cost</t>
   </si>
 </sst>
 </file>
@@ -574,24 +585,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF71955-FB00-4A13-9841-9B985EEEFB62}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -616,8 +628,11 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>30</v>
       </c>
@@ -641,6 +656,9 @@
       </c>
       <c r="H2">
         <v>80</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -650,67 +668,661 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB2CC8-B9D8-4FE5-960B-9B0984034D8D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>B2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>V4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;""))</f>
+        <v>M1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>M2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>M3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>B2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>V4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>B2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>V4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="str">
+        <v>S2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06E241-D090-4C23-9A88-3F3C92E70F61}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.89453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>450000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="5" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.20703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5234375" customWidth="1"/>
+    <col min="12" max="12" width="12.7890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>166.67</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <f>15/60</f>
+        <v>0.25</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>10000</v>
+      </c>
+      <c r="K2">
+        <v>166.67</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2.5</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>333.33</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>80000</v>
+      </c>
+      <c r="K3">
+        <v>166.67</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>541.66999999999996</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <f>30/60</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>130000</v>
+      </c>
+      <c r="K4">
+        <v>83.33</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>800</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>168</v>
+      </c>
+      <c r="J5">
+        <v>300000</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60961F4-8CE3-4B3A-93AF-60EFCE35F0D1}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(vessels!A2:A100, vessels!B2:B100 = 1)</f>
+        <v>V4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC1D42-2EA6-4A74-ACE3-149C8A508F63}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="21.3125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;""))</f>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A4">_xlfn.LET(
+    _xlpm.baseList, _xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100 &lt;&gt; ""),
+    _xlpm.vesselList, _xlfn._xlws.FILTER(vessels!A2:A100, vessels!B2:B100 = 1),
+    _xlfn.VSTACK(_xlpm.baseList, _xlpm.vesselList)
+)</f>
         <v>B1</v>
       </c>
-      <c r="C1" t="str">
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="str">
         <v>B2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
-        <v>S1</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>S2</v>
-      </c>
       <c r="B3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
-        <v>S3</v>
+        <v>V4</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>S4</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -718,289 +1330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;""))</f>
-        <v>B1</v>
-      </c>
-      <c r="C1" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
-        <v>S1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>S2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>S3</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>S4</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06E241-D090-4C23-9A88-3F3C92E70F61}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>450000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>166.67</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <f>15/60</f>
-        <v>0.25</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>10000</v>
-      </c>
-      <c r="J2">
-        <v>166.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2.5</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>333.33</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <f>20/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>80000</v>
-      </c>
-      <c r="J3">
-        <v>166.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>541.66999999999996</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <f>30/60</f>
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>24</v>
-      </c>
-      <c r="I4">
-        <v>130000</v>
-      </c>
-      <c r="J4">
-        <v>83.33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4AD3B-D68B-43E0-80DF-E258B870C86F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1008,15 +1338,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1015625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1039,7 +1369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1062,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1113,28 +1443,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1145,7 +1475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1156,10 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>30</v>
       </c>
@@ -1167,10 +1494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>40</v>
       </c>
@@ -1183,19 +1507,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F60F74-5991-4DF7-ADB4-D8FEE6BDA60A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
+        <f t="array" ref="B1:E1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
       </c>
       <c r="C1" t="str">
@@ -1204,8 +1528,11 @@
       <c r="D1" t="str">
         <v>V3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="str">
+        <v>V4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A4">_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;"")</f>
         <v>M1</v>
@@ -1219,8 +1546,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <v>M2</v>
       </c>
@@ -1233,8 +1563,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
         <v>M3</v>
       </c>
@@ -1246,6 +1579,9 @@
       </c>
       <c r="D4">
         <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1253,19 +1589,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E7950-5805-40E5-8CB7-09BB0C8D59D5}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
+        <f t="array" ref="B1:E1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
       </c>
       <c r="C1" t="str">
@@ -1274,8 +1610,11 @@
       <c r="D1" t="str">
         <v>V3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="str">
+        <v>V4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;"")</f>
         <v>B1</v>
@@ -1289,8 +1628,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <v>B2</v>
       </c>
@@ -1303,158 +1645,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB2CC8-B9D8-4FE5-960B-9B0984034D8D}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;""))</f>
-        <v>B1</v>
-      </c>
-      <c r="C1" t="str">
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
-        <v>S1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>S2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>S3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>S4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;""))</f>
-        <v>M1</v>
-      </c>
-      <c r="C1" t="str">
-        <v>M2</v>
-      </c>
-      <c r="D1" t="str">
-        <v>M3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A5">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
-        <v>S1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>S2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>S3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>S4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liams\OneDrive\Documents\Mischa Code\OWF_Vessel-Fleet-Optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3151CD22-8B3E-4FC5-8CCE-42E55EA3313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="8" activeTab="12" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF71955-FB00-4A13-9841-9B985EEEFB62}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB2CC8-B9D8-4FE5-960B-9B0984034D8D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -718,22 +718,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -741,10 +725,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B4" sqref="B4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -790,28 +774,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -819,10 +781,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -868,22 +830,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -891,10 +837,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -938,22 +884,6 @@
       </c>
       <c r="D3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1445,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1484,22 +1414,6 @@
       </c>
       <c r="C3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liams\OneDrive\Documents\Mischa Code\OWF_Vessel-Fleet-Optimization\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1EAECED-A938-4583-B660-6DBDA9B4E6EC}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="8" activeTab="12" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>B1</t>
   </si>
@@ -591,19 +591,19 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.20703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -632,7 +632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>30</v>
       </c>
@@ -675,9 +675,9 @@
       <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
         <v>B1</v>
@@ -689,7 +689,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>S2</v>
       </c>
@@ -731,9 +731,9 @@
       <selection activeCell="B4" sqref="B4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;""))</f>
         <v>M1</v>
@@ -745,7 +745,7 @@
         <v>M3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>S2</v>
       </c>
@@ -787,9 +787,9 @@
       <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
         <v>B1</v>
@@ -801,7 +801,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>S2</v>
       </c>
@@ -839,13 +839,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
         <v>B1</v>
@@ -857,7 +857,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>S2</v>
       </c>
@@ -899,12 +899,12 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -918,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -932,7 +932,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -959,17 +959,17 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.20703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5234375" customWidth="1"/>
-    <col min="12" max="12" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1175,14 +1175,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(vessels!A2:A100, vessels!B2:B100 = 1)</f>
         <v>V4</v>
@@ -1195,18 +1195,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC1D42-2EA6-4A74-ACE3-149C8A508F63}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1216,8 +1217,11 @@
       <c r="C1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A4">_xlfn.LET(
     _xlpm.baseList, _xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100 &lt;&gt; ""),
@@ -1232,8 +1236,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>B2</v>
       </c>
@@ -1243,8 +1250,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <v>V4</v>
       </c>
@@ -1253,6 +1263,9 @@
       </c>
       <c r="C4">
         <v>2</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1268,15 +1281,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1381,9 +1394,9 @@
       <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1405,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1429,9 +1442,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:E1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
@@ -1446,7 +1459,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A4">_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;"")</f>
         <v>M1</v>
@@ -1464,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>M2</v>
       </c>
@@ -1481,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <v>M3</v>
       </c>
@@ -1511,9 +1524,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:E1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
@@ -1528,7 +1541,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;"")</f>
         <v>B1</v>
@@ -1546,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>B2</v>
       </c>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1EAECED-A938-4583-B660-6DBDA9B4E6EC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0110E293-A9DF-450A-9249-8823A091FF35}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,10 +751,10 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -956,7 +956,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,7 +1043,7 @@
         <v>166.67</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>168</v>
       </c>
       <c r="J5">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -1197,7 +1197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC1D42-2EA6-4A74-ACE3-149C8A508F63}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0110E293-A9DF-450A-9249-8823A091FF35}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B52679FC-B784-4589-B590-BD14CDDAF4C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="12" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>B1</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
   </si>
   <si>
     <t>Hslimit</t>
@@ -605,31 +599,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -672,7 +666,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -906,7 +900,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -953,10 +947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5129D5-4392-4795-B324-B7E69B03092B}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,40 +965,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1048,119 +1042,44 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>800</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>2.5</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>333.33</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <f>20/60</f>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="J3">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="K3">
-        <v>166.67</v>
+        <v>50</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>541.66999999999996</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <f>30/60</f>
-        <v>0.5</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>130000</v>
-      </c>
-      <c r="K4">
-        <v>83.33</v>
-      </c>
-      <c r="L4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>800</v>
-      </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>168</v>
-      </c>
-      <c r="J5">
-        <v>10000</v>
-      </c>
-      <c r="K5">
-        <v>50</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1209,13 +1128,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1291,33 +1210,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1337,10 +1256,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -1360,10 +1279,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -1391,25 +1310,25 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1420,13 +1339,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1436,30 +1355,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F60F74-5991-4DF7-ADB4-D8FEE6BDA60A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:E1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
+        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
       </c>
       <c r="C1" t="str">
-        <v>V2</v>
-      </c>
-      <c r="D1" t="str">
-        <v>V3</v>
-      </c>
-      <c r="E1" t="str">
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A4">_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;"")</f>
         <v>M1</v>
@@ -1470,14 +1383,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>M2</v>
       </c>
@@ -1487,28 +1394,16 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <v>M3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1518,30 +1413,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E7950-5805-40E5-8CB7-09BB0C8D59D5}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:E1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
+        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
       </c>
       <c r="C1" t="str">
-        <v>V2</v>
-      </c>
-      <c r="D1" t="str">
-        <v>V3</v>
-      </c>
-      <c r="E1" t="str">
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;"")</f>
         <v>B1</v>
@@ -1550,16 +1439,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>B2</v>
       </c>
@@ -1567,12 +1450,6 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
         <v>1</v>
       </c>
     </row>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B52679FC-B784-4589-B590-BD14CDDAF4C5}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4ACF1F3-5825-4D42-8550-DC6D56A74CBD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="12" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="8" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -778,7 +778,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,13 +801,13 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -815,13 +815,13 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1415,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E7950-5805-40E5-8CB7-09BB0C8D59D5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4ACF1F3-5825-4D42-8550-DC6D56A74CBD}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D23C0BA8-594D-4BFA-8AF4-6F394CA3A874}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="8" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" firstSheet="4" activeTab="11" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>B1</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>tech_standby_cost</t>
+  </si>
+  <si>
+    <t>initial_inventory</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,13 +692,13 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -703,13 +706,13 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -777,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,13 +804,13 @@
         <v>S1</v>
       </c>
       <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
         <v>100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -815,13 +818,13 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +837,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,13 +860,13 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -871,13 +874,13 @@
         <v>S2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1091,10 +1094,13 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1114,19 +1120,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC1D42-2EA6-4A74-ACE3-149C8A508F63}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1139,8 +1146,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A4">_xlfn.LET(
     _xlpm.baseList, _xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100 &lt;&gt; ""),
@@ -1158,8 +1168,11 @@
       <c r="D2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>B2</v>
       </c>
@@ -1172,8 +1185,11 @@
       <c r="D3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <v>V4</v>
       </c>
@@ -1185,6 +1201,9 @@
       </c>
       <c r="D4">
         <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1329,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,7 +1350,7 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1342,7 +1361,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1415,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E7950-5805-40E5-8CB7-09BB0C8D59D5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D23C0BA8-594D-4BFA-8AF4-6F394CA3A874}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA87C73-17E4-4A87-8EBA-1B0FCEEA7020}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" firstSheet="4" activeTab="11" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="6" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>B1</t>
   </si>
@@ -111,12 +111,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>active_time</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>PRE/COR</t>
   </si>
   <si>
-    <t>PRE</t>
-  </si>
-  <si>
     <t>COR</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
   </si>
   <si>
     <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
   </si>
   <si>
     <t>order_cost</t>
@@ -585,7 +573,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,31 +590,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -646,10 +634,10 @@
         <v>500</v>
       </c>
       <c r="F2">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G2">
-        <v>1000000</v>
+        <v>100000000</v>
       </c>
       <c r="H2">
         <v>80</v>
@@ -666,10 +654,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB2CC8-B9D8-4FE5-960B-9B0984034D8D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,31 +676,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>S2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -722,53 +696,27 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397EDE46-A218-4D87-9847-C01D7AFA5102}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;""))</f>
+        <f t="array" ref="B1">TRANSPOSE(_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;""))</f>
         <v>M1</v>
       </c>
-      <c r="C1" t="str">
-        <v>M2</v>
-      </c>
-      <c r="D1" t="str">
-        <v>M3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>S2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
         <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -778,9 +726,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -800,31 +748,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>S2</v>
-      </c>
-      <c r="B3">
-        <v>400</v>
-      </c>
-      <c r="C3">
-        <v>400</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -834,10 +768,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,7 +790,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
@@ -866,20 +800,6 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>S2</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
         <v>5</v>
       </c>
     </row>
@@ -893,17 +813,18 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -953,7 +874,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,10 +889,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -980,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -995,13 +916,13 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1045,7 +966,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1104,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1123,7 +1044,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,19 +1056,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1169,7 +1090,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1186,7 +1107,7 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1213,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4AD3B-D68B-43E0-80DF-E258B870C86F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,25 +1150,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1255,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1271,52 +1192,6 @@
       </c>
       <c r="G2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>10000</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>12500</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1326,45 +1201,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1374,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F60F74-5991-4DF7-ADB4-D8FEE6BDA60A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,36 +1257,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A4">_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;"")</f>
         <v>M1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>M2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>M3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1277,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA87C73-17E4-4A87-8EBA-1B0FCEEA7020}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD1C8517-43F0-449F-AB18-7B4EA23ED26E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="6" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="6" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -576,19 +576,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -617,7 +617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -660,9 +660,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
         <v>B1</v>
@@ -674,7 +674,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
@@ -702,15 +702,15 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1">TRANSPOSE(_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;""))</f>
         <v>M1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
@@ -732,9 +732,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
         <v>B1</v>
@@ -746,7 +746,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
@@ -774,9 +774,9 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
         <v>B1</v>
@@ -788,7 +788,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
@@ -816,13 +816,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -877,17 +877,17 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -925,7 +925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -964,7 +964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
   </sheetData>
@@ -1018,17 +1018,17 @@
       <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(vessels!A2:A100, vessels!B2:B100 = 1)</f>
         <v>V4</v>
@@ -1047,14 +1047,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A4">_xlfn.LET(
     _xlpm.baseList, _xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100 &lt;&gt; ""),
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>B2</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>V4</v>
       </c>
@@ -1140,15 +1140,15 @@
       <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1204,12 +1204,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1241,12 +1241,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
@@ -1255,7 +1255,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;"")</f>
         <v>M1</v>
@@ -1280,9 +1280,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
@@ -1291,7 +1291,7 @@
         <v>V4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;"")</f>
         <v>B1</v>
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>B2</v>
       </c>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD1C8517-43F0-449F-AB18-7B4EA23ED26E}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB8D8D10-8A87-481A-9FE0-5A7612427556}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="6" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="4" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <v>200000</v>
       </c>
       <c r="G2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
       <c r="H2">
         <v>80</v>
@@ -699,7 +699,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,13 +752,13 @@
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +874,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,7 @@
         <v>168</v>
       </c>
       <c r="J3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K3">
         <v>50</v>
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC1D42-2EA6-4A74-ACE3-149C8A508F63}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50264280-C602-45CD-AF71-2077C88A1536}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB8D8D10-8A87-481A-9FE0-5A7612427556}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B94AC570-58BD-4071-B322-0F83A50A0FE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="4" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="9" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB2CC8-B9D8-4FE5-960B-9B0984034D8D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC1D42-2EA6-4A74-ACE3-149C8A508F63}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs.xlsx
+++ b/data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/02_ME/ME54015/OWF_Vessel-Fleet-Optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B94AC570-58BD-4071-B322-0F83A50A0FE5}"/>
+  <xr:revisionPtr revIDLastSave="520" documentId="13_ncr:1_{4E655DA3-6644-44D5-B8A3-390376DF86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6149B3B7-036C-472E-B209-B982CF3B7BE3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="9" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" firstSheet="4" activeTab="4" xr2:uid="{5CDB4E5C-34BF-4466-8F20-CB91BE55E2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="5" r:id="rId1"/>
@@ -48,9 +48,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -61,23 +62,34 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>distance</t>
   </si>
   <si>
@@ -178,9 +190,6 @@
   </si>
   <si>
     <t>MV</t>
-  </si>
-  <si>
-    <t>V4</t>
   </si>
   <si>
     <t>max_capacity_for_docking</t>
@@ -251,6 +260,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,48 +643,48 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
       <c r="I1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>30</v>
       </c>
@@ -654,39 +721,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB2CC8-B9D8-4FE5-960B-9B0984034D8D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
+        <f t="array" ref="B1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
         <v>B1</v>
       </c>
-      <c r="C1" t="str">
-        <v>B2</v>
-      </c>
-      <c r="D1" t="str">
-        <v>V4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -699,24 +754,24 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1">TRANSPOSE(_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;""))</f>
         <v>M1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
         <v>S1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -726,117 +781,93 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CB446-56D8-4850-8B54-9A701C7360FF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
+        <v>S1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06E241-D090-4C23-9A88-3F3C92E70F61}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
-        <v>B1</v>
-      </c>
-      <c r="C1" t="str">
-        <v>B2</v>
-      </c>
-      <c r="D1" t="str">
-        <v>V4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
-        <v>S1</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-      <c r="D2">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CD8D2-6DC6-477C-BD52-3078DFB872A3}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">TRANSPOSE(_xlfn._xlws.FILTER(locations!A2:A100, locations!A2:A100&lt;&gt;""))</f>
-        <v>B1</v>
-      </c>
-      <c r="C1" t="str">
-        <v>B2</v>
-      </c>
-      <c r="D1" t="str">
-        <v>V4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2">_xlfn._xlws.FILTER(spare_parts!A2:A100, spare_parts!A2:A100&lt;&gt;"")</f>
-        <v>S1</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06E241-D090-4C23-9A88-3F3C92E70F61}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -847,21 +878,7 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>450000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -874,60 +891,60 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -939,70 +956,32 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>166.67</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <f>15/60</f>
         <v>0.25</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>166.67</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>800</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>168</v>
-      </c>
-      <c r="J3">
-        <v>20000</v>
-      </c>
-      <c r="K3">
-        <v>50</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
   </sheetData>
@@ -1018,20 +997,20 @@
       <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="str" cm="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="e" cm="1" vm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(vessels!A2:A100, vessels!B2:B100 = 1)</f>
-        <v>V4</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -1041,44 +1020,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC1D42-2EA6-4A74-ACE3-149C8A508F63}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A4">_xlfn.LET(
-    _xlpm.baseList, _xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100 &lt;&gt; ""),
-    _xlpm.vesselList, _xlfn._xlws.FILTER(vessels!A2:A100, vessels!B2:B100 = 1),
-    _xlfn.VSTACK(_xlpm.baseList, _xlpm.vesselList)
-)</f>
-        <v>B1</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>60</v>
@@ -1090,41 +1064,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <v>B2</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <v>V4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1137,58 +1077,58 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1207,22 +1147,22 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1238,24 +1178,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F60F74-5991-4DF7-ADB4-D8FEE6BDA60A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
+        <f t="array" ref="B1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
       </c>
-      <c r="C1" t="str">
-        <v>V4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn._xlws.FILTER(tasks!A2:A100, tasks!A2:A100&lt;&gt;"")</f>
         <v>M1</v>
@@ -1263,9 +1200,6 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1274,43 +1208,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E7950-5805-40E5-8CB7-09BB0C8D59D5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:C1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
+        <f t="array" ref="B1">TRANSPOSE(_xlfn._xlws.FILTER(vessels!A2:A100, vessels!A2:A100&lt;&gt;""))</f>
         <v>V1</v>
       </c>
-      <c r="C1" t="str">
-        <v>V4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A3">_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;"")</f>
+        <f t="array" ref="A2">_xlfn._xlws.FILTER(bases!A2:A100, bases!A2:A100&lt;&gt;"")</f>
         <v>B1</v>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <v>B2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
         <v>1</v>
       </c>
     </row>
